--- a/data/trans_orig/P43B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Edad-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>4921</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1844</v>
+        <v>1085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10524</v>
+        <v>10407</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1796889788405072</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06731378365854375</v>
+        <v>0.03962616405273237</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3842764616909412</v>
+        <v>0.38000740025083</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>22466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16863</v>
+        <v>16980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25543</v>
+        <v>26302</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8203110211594928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6157235383090583</v>
+        <v>0.61999259974917</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9326862163414562</v>
+        <v>0.9603738359472678</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>25125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16604</v>
+        <v>17092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33589</v>
+        <v>34470</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3229031873283025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2133900070085177</v>
+        <v>0.2196572414169942</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4316705552330819</v>
+        <v>0.4429938710373388</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>52686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44222</v>
+        <v>43341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61207</v>
+        <v>60719</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6770968126716975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.568329444766918</v>
+        <v>0.5570061289626611</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7866099929914822</v>
+        <v>0.7803427585830054</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>69284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55989</v>
+        <v>54548</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85426</v>
+        <v>84295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3009971004509929</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2432385980588274</v>
+        <v>0.2369779152255181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3711200170506486</v>
+        <v>0.3662087091545613</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>160899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144757</v>
+        <v>145888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>174194</v>
+        <v>175635</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6990028995490071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6288799829493513</v>
+        <v>0.6337912908454386</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7567614019411726</v>
+        <v>0.7630220847744819</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>72053</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56293</v>
+        <v>57081</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91801</v>
+        <v>91536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1796172039535737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1403298068813645</v>
+        <v>0.1422926499698395</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2288451357096797</v>
+        <v>0.2281854512981376</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>329096</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>309348</v>
+        <v>309613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>344856</v>
+        <v>344068</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8203827960464263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7711548642903207</v>
+        <v>0.7718145487018625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8596701931186356</v>
+        <v>0.8577073500301605</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>32496</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21714</v>
+        <v>22226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46818</v>
+        <v>45310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08111902075118112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05420553134964811</v>
+        <v>0.05548261908833636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1168719799955039</v>
+        <v>0.1131069705522754</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>368097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>353775</v>
+        <v>355283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>378879</v>
+        <v>378367</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9188809792488188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8831280200044964</v>
+        <v>0.8868930294477252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9457944686503521</v>
+        <v>0.9445173809116639</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>19171</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11249</v>
+        <v>11863</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29928</v>
+        <v>30874</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06443586452293948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03780775073865712</v>
+        <v>0.03987341450216426</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1005903392004793</v>
+        <v>0.1037699947506533</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>278349</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267592</v>
+        <v>266646</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286271</v>
+        <v>285657</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9355641354770605</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8994096607995208</v>
+        <v>0.8962300052493467</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9621922492613435</v>
+        <v>0.9601265854978357</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>10985</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5444</v>
+        <v>5868</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19001</v>
+        <v>19472</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05465781042786288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02708945109739141</v>
+        <v>0.02920091198424822</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.094544523287988</v>
+        <v>0.09689282995848794</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>189984</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>181968</v>
+        <v>181497</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195525</v>
+        <v>195101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9453421895721371</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9054554767120117</v>
+        <v>0.9031071700415119</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9729105489026084</v>
+        <v>0.9707990880157517</v>
       </c>
     </row>
     <row r="24">
@@ -1260,19 +1260,19 @@
         <v>234035</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>203096</v>
+        <v>206405</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>262159</v>
+        <v>264379</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.143087388190311</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1241712633064915</v>
+        <v>0.1261947217185073</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1602819018684755</v>
+        <v>0.1616391906634115</v>
       </c>
     </row>
     <row r="26">
@@ -1289,19 +1289,19 @@
         <v>1401576</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1373452</v>
+        <v>1371232</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1432515</v>
+        <v>1429206</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.856912611809689</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8397180981315246</v>
+        <v>0.8383608093365885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8758287366935086</v>
+        <v>0.8738052782814929</v>
       </c>
     </row>
     <row r="27">
@@ -1472,19 +1472,19 @@
         <v>5572</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2016</v>
+        <v>2133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10482</v>
+        <v>11005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2978862088841522</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1077701925605443</v>
+        <v>0.1140092464227123</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5603936742343365</v>
+        <v>0.5883584900469814</v>
       </c>
     </row>
     <row r="5">
@@ -1501,19 +1501,19 @@
         <v>13133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8223</v>
+        <v>7700</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16689</v>
+        <v>16572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7021137911158477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4396063257656634</v>
+        <v>0.4116415099530196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8922298074394557</v>
+        <v>0.8859907535772876</v>
       </c>
     </row>
     <row r="6">
@@ -1563,19 +1563,19 @@
         <v>18860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11992</v>
+        <v>12431</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27237</v>
+        <v>27500</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2677791732987663</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1702660958870198</v>
+        <v>0.1764934847215446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3867126771741286</v>
+        <v>0.390450745850945</v>
       </c>
     </row>
     <row r="8">
@@ -1592,19 +1592,19 @@
         <v>51571</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43194</v>
+        <v>42931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58439</v>
+        <v>58000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7322208267012338</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6132873228258718</v>
+        <v>0.6095492541490554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8297339041129803</v>
+        <v>0.8235065152784553</v>
       </c>
     </row>
     <row r="9">
@@ -1654,19 +1654,19 @@
         <v>55794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43265</v>
+        <v>43785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69069</v>
+        <v>71624</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2562918503379923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1987402854882905</v>
+        <v>0.2011274983796108</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3172717137170886</v>
+        <v>0.3290078379815473</v>
       </c>
     </row>
     <row r="11">
@@ -1683,19 +1683,19 @@
         <v>161903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>148628</v>
+        <v>146073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>174432</v>
+        <v>173912</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7437081496620077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6827282862829113</v>
+        <v>0.6709921620184525</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8012597145117094</v>
+        <v>0.7988725016203891</v>
       </c>
     </row>
     <row r="12">
@@ -1745,19 +1745,19 @@
         <v>67605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52962</v>
+        <v>53580</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83715</v>
+        <v>84677</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1609828727656013</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1261151981939223</v>
+        <v>0.127585090685653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1993431751951128</v>
+        <v>0.2016353081034266</v>
       </c>
     </row>
     <row r="14">
@@ -1774,19 +1774,19 @@
         <v>352347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336237</v>
+        <v>335275</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366990</v>
+        <v>366372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8390171272343987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8006568248048872</v>
+        <v>0.7983646918965736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8738848018060777</v>
+        <v>0.8724149093143471</v>
       </c>
     </row>
     <row r="15">
@@ -1836,19 +1836,19 @@
         <v>33604</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22097</v>
+        <v>22443</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47047</v>
+        <v>48193</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07734621159539576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05085955006989066</v>
+        <v>0.05165632671476791</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.108286888208221</v>
+        <v>0.1109243394270641</v>
       </c>
     </row>
     <row r="17">
@@ -1865,19 +1865,19 @@
         <v>400864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>387421</v>
+        <v>386275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>412371</v>
+        <v>412025</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9226537884046042</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8917131117917791</v>
+        <v>0.8890756605729357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9491404499301099</v>
+        <v>0.9483436732852317</v>
       </c>
     </row>
     <row r="18">
@@ -1927,19 +1927,19 @@
         <v>20669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13557</v>
+        <v>12556</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31676</v>
+        <v>31815</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06800626114147169</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04460663664907268</v>
+        <v>0.0413144520636293</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1042239739189377</v>
+        <v>0.1046810245328092</v>
       </c>
     </row>
     <row r="20">
@@ -1956,19 +1956,19 @@
         <v>283252</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272245</v>
+        <v>272106</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290364</v>
+        <v>291365</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9319937388585283</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8957760260810622</v>
+        <v>0.895318975467191</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9553933633509273</v>
+        <v>0.9586855479363707</v>
       </c>
     </row>
     <row r="21">
@@ -2021,16 +2021,16 @@
         <v>2547</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15624</v>
+        <v>16780</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03243216245815785</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01127803210582609</v>
+        <v>0.01127687794231433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06918379529508152</v>
+        <v>0.07430237985742075</v>
       </c>
     </row>
     <row r="23">
@@ -2047,7 +2047,7 @@
         <v>218512</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210212</v>
+        <v>209056</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>223289</v>
@@ -2056,10 +2056,10 @@
         <v>0.9675678375418422</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9308162047049183</v>
+        <v>0.9256976201425792</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9887219678941739</v>
+        <v>0.9887231220576856</v>
       </c>
     </row>
     <row r="24">
@@ -2109,19 +2109,19 @@
         <v>209428</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>181962</v>
+        <v>183116</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>238780</v>
+        <v>239674</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1238481036440404</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1076057646784511</v>
+        <v>0.108287703977103</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1412058354247437</v>
+        <v>0.1417342801411673</v>
       </c>
     </row>
     <row r="26">
@@ -2138,19 +2138,19 @@
         <v>1481582</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1452230</v>
+        <v>1451336</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1509048</v>
+        <v>1507894</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8761518963559596</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8587941645752558</v>
+        <v>0.8582657198588326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8923942353215487</v>
+        <v>0.891712296022897</v>
       </c>
     </row>
     <row r="27">
@@ -2321,19 +2321,19 @@
         <v>8694</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2734</v>
+        <v>2627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15623</v>
+        <v>16106</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3963000892519128</v>
+        <v>0.3963000892519127</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1246331545157766</v>
+        <v>0.1197399778645981</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7121142984607678</v>
+        <v>0.7341396322779905</v>
       </c>
     </row>
     <row r="5">
@@ -2350,19 +2350,19 @@
         <v>13245</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6316</v>
+        <v>5833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19205</v>
+        <v>19312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6036999107480873</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2878857015392323</v>
+        <v>0.2658603677220089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8753668454842233</v>
+        <v>0.8802600221354019</v>
       </c>
     </row>
     <row r="6">
@@ -2412,19 +2412,19 @@
         <v>15751</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9122</v>
+        <v>9566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23170</v>
+        <v>23320</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2939757561503196</v>
+        <v>0.2939757561503197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1702526200268608</v>
+        <v>0.1785367447287442</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4324323239125769</v>
+        <v>0.4352385162647251</v>
       </c>
     </row>
     <row r="8">
@@ -2441,19 +2441,19 @@
         <v>37829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30410</v>
+        <v>30260</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44458</v>
+        <v>44014</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7060242438496803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5675676760874231</v>
+        <v>0.564761483735275</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8297473799731394</v>
+        <v>0.821463255271256</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>49456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40037</v>
+        <v>40694</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58169</v>
+        <v>60413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3492705886984097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2827500405306309</v>
+        <v>0.28738870549609</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4108038694858246</v>
+        <v>0.4266517630793262</v>
       </c>
     </row>
     <row r="11">
@@ -2532,19 +2532,19 @@
         <v>92143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83430</v>
+        <v>81186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101562</v>
+        <v>100905</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6507294113015903</v>
+        <v>0.6507294113015902</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5891961305141753</v>
+        <v>0.5733482369206738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7172499594693695</v>
+        <v>0.7126112945039104</v>
       </c>
     </row>
     <row r="12">
@@ -2594,19 +2594,19 @@
         <v>94418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81992</v>
+        <v>81983</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108514</v>
+        <v>107407</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2987348785451941</v>
+        <v>0.2987348785451942</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.259420884440674</v>
+        <v>0.2593922573745008</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3433355071460423</v>
+        <v>0.3398323667869462</v>
       </c>
     </row>
     <row r="14">
@@ -2623,19 +2623,19 @@
         <v>221640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>207544</v>
+        <v>208651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>234066</v>
+        <v>234075</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7012651214548058</v>
+        <v>0.701265121454806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6566644928539579</v>
+        <v>0.6601676332130539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.740579115559326</v>
+        <v>0.7406077426254992</v>
       </c>
     </row>
     <row r="15">
@@ -2685,19 +2685,19 @@
         <v>46712</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38002</v>
+        <v>37363</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58332</v>
+        <v>56989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1313014756626072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1068201243236439</v>
+        <v>0.1050240157223057</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1639647545146566</v>
+        <v>0.1601887888870631</v>
       </c>
     </row>
     <row r="17">
@@ -2714,19 +2714,19 @@
         <v>309048</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>297428</v>
+        <v>298771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>317758</v>
+        <v>318397</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8686985243373928</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8360352454853441</v>
+        <v>0.8398112111129368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8931798756763564</v>
+        <v>0.8949759842776942</v>
       </c>
     </row>
     <row r="18">
@@ -2776,19 +2776,19 @@
         <v>32888</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25186</v>
+        <v>25644</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41850</v>
+        <v>41989</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1108760725289525</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08490777058100446</v>
+        <v>0.0864525446082029</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1410888383127815</v>
+        <v>0.1415587731009035</v>
       </c>
     </row>
     <row r="20">
@@ -2805,19 +2805,19 @@
         <v>263734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254772</v>
+        <v>254633</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271436</v>
+        <v>270978</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8891239274710476</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8589111616872187</v>
+        <v>0.8584412268990966</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9150922294189956</v>
+        <v>0.9135474553917973</v>
       </c>
     </row>
     <row r="21">
@@ -2867,19 +2867,19 @@
         <v>22405</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16231</v>
+        <v>16436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30207</v>
+        <v>29627</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08005736019675752</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05799536656074034</v>
+        <v>0.05872761587462517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.10793423058677</v>
+        <v>0.1058636352631674</v>
       </c>
     </row>
     <row r="23">
@@ -2896,19 +2896,19 @@
         <v>257459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>249657</v>
+        <v>250237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>263633</v>
+        <v>263428</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9199426398032423</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.89206576941323</v>
+        <v>0.8941363647368323</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9420046334392597</v>
+        <v>0.9412723841253747</v>
       </c>
     </row>
     <row r="24">
@@ -2958,19 +2958,19 @@
         <v>270325</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>245082</v>
+        <v>249605</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>294259</v>
+        <v>296448</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1844688818003775</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1672430826070092</v>
+        <v>0.1703294726708511</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2008015802258782</v>
+        <v>0.2022952340407483</v>
       </c>
     </row>
     <row r="26">
@@ -2987,19 +2987,19 @@
         <v>1195097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1171163</v>
+        <v>1168974</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1220340</v>
+        <v>1215817</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8155311181996225</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7991984197741219</v>
+        <v>0.7977047659592513</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.832756917392991</v>
+        <v>0.8296705273291487</v>
       </c>
     </row>
     <row r="27">
